--- a/Code/Results/Cases/Case_7_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.879244847756667</v>
+        <v>0.9465764016671301</v>
       </c>
       <c r="C2">
-        <v>0.2505074270306693</v>
+        <v>0.07430575001447437</v>
       </c>
       <c r="D2">
-        <v>0.4124973931725009</v>
+        <v>0.4816652707650206</v>
       </c>
       <c r="E2">
-        <v>0.0374940233911838</v>
+        <v>0.05040575522018997</v>
       </c>
       <c r="F2">
-        <v>6.781005913307979</v>
+        <v>7.114039547980951</v>
       </c>
       <c r="G2">
-        <v>0.000828991398691015</v>
+        <v>0.0008654407987632724</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4228608942219694</v>
+        <v>0.7204734593254329</v>
       </c>
       <c r="L2">
-        <v>0.1471839545266036</v>
+        <v>0.1449802140182541</v>
       </c>
       <c r="M2">
-        <v>0.3365494615706268</v>
+        <v>0.2070247461445511</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.634994671247199</v>
+        <v>0.8372253379644121</v>
       </c>
       <c r="C3">
-        <v>0.2163252376756475</v>
+        <v>0.06694305829245906</v>
       </c>
       <c r="D3">
-        <v>0.3763036092831271</v>
+        <v>0.4439839194742063</v>
       </c>
       <c r="E3">
-        <v>0.0362530146165243</v>
+        <v>0.04780406648754365</v>
       </c>
       <c r="F3">
-        <v>6.048952323113099</v>
+        <v>6.412762340497807</v>
       </c>
       <c r="G3">
-        <v>0.0008394868983905041</v>
+        <v>0.0008741365606473953</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3636092806235709</v>
+        <v>0.6248699621141469</v>
       </c>
       <c r="L3">
-        <v>0.1335461818155963</v>
+        <v>0.1320971762231267</v>
       </c>
       <c r="M3">
-        <v>0.2955578024224437</v>
+        <v>0.1848673435865216</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.489681526037373</v>
+        <v>0.7723032467699511</v>
       </c>
       <c r="C4">
-        <v>0.1958449682596068</v>
+        <v>0.06250842901069831</v>
       </c>
       <c r="D4">
-        <v>0.354498115804958</v>
+        <v>0.4210775160564708</v>
       </c>
       <c r="E4">
-        <v>0.03550761213797404</v>
+        <v>0.04624217310302292</v>
       </c>
       <c r="F4">
-        <v>5.609102706402723</v>
+        <v>5.988542959008868</v>
       </c>
       <c r="G4">
-        <v>0.0008460731518734165</v>
+        <v>0.0008796102857063891</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3283080803243124</v>
+        <v>0.5680449749327465</v>
       </c>
       <c r="L4">
-        <v>0.1254405879297096</v>
+        <v>0.1244142100542192</v>
       </c>
       <c r="M4">
-        <v>0.2711797938544862</v>
+        <v>0.1716983657517979</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.431497861229985</v>
+        <v>0.7463517131905064</v>
       </c>
       <c r="C5">
-        <v>0.1876035150743434</v>
+        <v>0.06071770032950141</v>
       </c>
       <c r="D5">
-        <v>0.3456990853519244</v>
+        <v>0.411787454137226</v>
       </c>
       <c r="E5">
-        <v>0.03520712755444411</v>
+        <v>0.04561375779982413</v>
       </c>
       <c r="F5">
-        <v>5.431936547718834</v>
+        <v>5.81703785551278</v>
       </c>
       <c r="G5">
-        <v>0.0008487955357999281</v>
+        <v>0.0008818764193109927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3141591129452479</v>
+        <v>0.5453094632100317</v>
       </c>
       <c r="L5">
-        <v>0.1221981660439226</v>
+        <v>0.1213354769440826</v>
       </c>
       <c r="M5">
-        <v>0.2614220208785127</v>
+        <v>0.1664313614813473</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.421895088607016</v>
+        <v>0.7420714883122059</v>
       </c>
       <c r="C6">
-        <v>0.1862407020523307</v>
+        <v>0.06042119893300679</v>
       </c>
       <c r="D6">
-        <v>0.3442427631057114</v>
+        <v>0.410247161942749</v>
       </c>
       <c r="E6">
-        <v>0.03515740562470437</v>
+        <v>0.04550987310425647</v>
       </c>
       <c r="F6">
-        <v>5.402634133372061</v>
+        <v>5.788635702264372</v>
       </c>
       <c r="G6">
-        <v>0.000849249981886457</v>
+        <v>0.0008822549038673246</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3118230220892144</v>
+        <v>0.5415582869755013</v>
       </c>
       <c r="L6">
-        <v>0.1216632442051662</v>
+        <v>0.120827265825028</v>
       </c>
       <c r="M6">
-        <v>0.2598117938197113</v>
+        <v>0.1655625069055944</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.488892832712253</v>
+        <v>0.7719512790023373</v>
       </c>
       <c r="C7">
-        <v>0.1957334272615014</v>
+        <v>0.06248421870587606</v>
       </c>
       <c r="D7">
-        <v>0.354379119923351</v>
+        <v>0.4209520638381008</v>
       </c>
       <c r="E7">
-        <v>0.0355035475598795</v>
+        <v>0.04623366650475624</v>
       </c>
       <c r="F7">
-        <v>5.60670540924022</v>
+        <v>5.986224738192476</v>
       </c>
       <c r="G7">
-        <v>0.0008461097077893182</v>
+        <v>0.0008796407015858598</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.328116348125711</v>
+        <v>0.567736714437757</v>
       </c>
       <c r="L7">
-        <v>0.1253966222598351</v>
+        <v>0.1243724844063649</v>
       </c>
       <c r="M7">
-        <v>0.2710475106723322</v>
+        <v>0.1716269431294819</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.79397273203918</v>
+        <v>0.9083777443533165</v>
       </c>
       <c r="C8">
-        <v>0.2386012103032868</v>
+        <v>0.07174592121783618</v>
       </c>
       <c r="D8">
-        <v>0.399919610286176</v>
+        <v>0.468616584199907</v>
       </c>
       <c r="E8">
-        <v>0.0370621098831263</v>
+        <v>0.04950076601395281</v>
       </c>
       <c r="F8">
-        <v>6.526374663175432</v>
+        <v>6.870770794768362</v>
       </c>
       <c r="G8">
-        <v>0.0008325825086999389</v>
+        <v>0.0008684122669430418</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4021846968069909</v>
+        <v>0.6870881438952381</v>
       </c>
       <c r="L8">
-        <v>0.1424217519637523</v>
+        <v>0.1404878219116341</v>
       </c>
       <c r="M8">
-        <v>0.3222371068850691</v>
+        <v>0.1992880666703485</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.436300891013673</v>
+        <v>1.196207664645499</v>
       </c>
       <c r="C9">
-        <v>0.327896588356694</v>
+        <v>0.09085557406105949</v>
       </c>
       <c r="D9">
-        <v>0.4934626235085915</v>
+        <v>0.5645793172939051</v>
       </c>
       <c r="E9">
-        <v>0.04029655465345527</v>
+        <v>0.05623322486737692</v>
       </c>
       <c r="F9">
-        <v>8.423977027129609</v>
+        <v>8.667565875365995</v>
       </c>
       <c r="G9">
-        <v>0.0008070432166878795</v>
+        <v>0.0008473745542679052</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5577929543193747</v>
+        <v>0.9385636033910316</v>
       </c>
       <c r="L9">
-        <v>0.1782781662391812</v>
+        <v>0.1741439509730398</v>
       </c>
       <c r="M9">
-        <v>0.4300470332744055</v>
+        <v>0.2574961865808305</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.946584355562777</v>
+        <v>1.424264741029532</v>
       </c>
       <c r="C10">
-        <v>0.3986566985865636</v>
+        <v>0.1058922304663952</v>
       </c>
       <c r="D10">
-        <v>0.5662559872473594</v>
+        <v>0.6376420334309785</v>
       </c>
       <c r="E10">
-        <v>0.04285783499686069</v>
+        <v>0.06144616493169153</v>
       </c>
       <c r="F10">
-        <v>9.903948990376335</v>
+        <v>10.04383864467783</v>
       </c>
       <c r="G10">
-        <v>0.0007886588825916599</v>
+        <v>0.000832382755473926</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.681343014600607</v>
+        <v>1.137946899356905</v>
       </c>
       <c r="L10">
-        <v>0.2066781655548908</v>
+        <v>0.2005150203064545</v>
       </c>
       <c r="M10">
-        <v>0.515639733734254</v>
+        <v>0.3034739337474193</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.190171293588719</v>
+        <v>1.532708306709537</v>
       </c>
       <c r="C11">
-        <v>0.4325072206440268</v>
+        <v>0.1130597728233695</v>
       </c>
       <c r="D11">
-        <v>0.6006528749434494</v>
+        <v>0.6717023160849465</v>
       </c>
       <c r="E11">
-        <v>0.04408433119141275</v>
+        <v>0.06389302013351283</v>
       </c>
       <c r="F11">
-        <v>10.60348627169134</v>
+        <v>10.68682650840896</v>
       </c>
       <c r="G11">
-        <v>0.0007803181762865795</v>
+        <v>0.0008256293369159906</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7403427875905422</v>
+        <v>1.232867436748307</v>
       </c>
       <c r="L11">
-        <v>0.2201917863013279</v>
+        <v>0.2129695551333839</v>
       </c>
       <c r="M11">
-        <v>0.5564659186664755</v>
+        <v>0.3252935494648028</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.284373044188044</v>
+        <v>1.574554474739244</v>
       </c>
       <c r="C12">
-        <v>0.4456197650467288</v>
+        <v>0.1158318797354454</v>
       </c>
       <c r="D12">
-        <v>0.6139024182166111</v>
+        <v>0.6847440297472644</v>
       </c>
       <c r="E12">
-        <v>0.04455977506827313</v>
+        <v>0.06483210204259393</v>
       </c>
       <c r="F12">
-        <v>10.87292689742094</v>
+        <v>10.93319090222872</v>
       </c>
       <c r="G12">
-        <v>0.0007771570423317938</v>
+        <v>0.0008230782856094062</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7631665834254022</v>
+        <v>1.269519202467336</v>
       </c>
       <c r="L12">
-        <v>0.2254091838189396</v>
+        <v>0.2177613033475723</v>
       </c>
       <c r="M12">
-        <v>0.5722479093319919</v>
+        <v>0.3337059165900129</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.263992230049496</v>
+        <v>1.56550558997219</v>
       </c>
       <c r="C13">
-        <v>0.4427816745465805</v>
+        <v>0.1152320908164697</v>
       </c>
       <c r="D13">
-        <v>0.611038216040555</v>
+        <v>0.6819284269057846</v>
       </c>
       <c r="E13">
-        <v>0.04445685153031498</v>
+        <v>0.06462926876565334</v>
       </c>
       <c r="F13">
-        <v>10.8146825753671</v>
+        <v>10.87999614047055</v>
       </c>
       <c r="G13">
-        <v>0.0007778380737974332</v>
+        <v>0.0008236274748980626</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7582282163288951</v>
+        <v>1.261592372880898</v>
       </c>
       <c r="L13">
-        <v>0.2242808137374936</v>
+        <v>0.2167257909656541</v>
       </c>
       <c r="M13">
-        <v>0.5688337598021604</v>
+        <v>0.3318871592870067</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.197880043549333</v>
+        <v>1.536134710641562</v>
       </c>
       <c r="C14">
-        <v>0.4335797508214796</v>
+        <v>0.1132866070740377</v>
       </c>
       <c r="D14">
-        <v>0.6017381782463929</v>
+        <v>0.6727722260671953</v>
       </c>
       <c r="E14">
-        <v>0.04412321192040825</v>
+        <v>0.06397001795098944</v>
       </c>
       <c r="F14">
-        <v>10.62555748980378</v>
+        <v>10.70703459133938</v>
       </c>
       <c r="G14">
-        <v>0.0007800581993589666</v>
+        <v>0.0008254193537889369</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7422103502507085</v>
+        <v>1.235867995450008</v>
       </c>
       <c r="L14">
-        <v>0.2206189265347263</v>
+        <v>0.2133622028164979</v>
       </c>
       <c r="M14">
-        <v>0.5577575401735331</v>
+        <v>0.3259825160612309</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.157649983524323</v>
+        <v>1.518249268834865</v>
       </c>
       <c r="C15">
-        <v>0.4279834176492443</v>
+        <v>0.1121028339343511</v>
       </c>
       <c r="D15">
-        <v>0.5960721253879626</v>
+        <v>0.6671833283327828</v>
       </c>
       <c r="E15">
-        <v>0.04392035166209673</v>
+        <v>0.06356789001641161</v>
       </c>
       <c r="F15">
-        <v>10.51032904209967</v>
+        <v>10.60147981090654</v>
       </c>
       <c r="G15">
-        <v>0.0007814175473716015</v>
+        <v>0.0008265176514791831</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7324643051973538</v>
+        <v>1.220206422608641</v>
       </c>
       <c r="L15">
-        <v>0.2183894236070643</v>
+        <v>0.2113120447285581</v>
       </c>
       <c r="M15">
-        <v>0.5510166092103717</v>
+        <v>0.3223858852206973</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.930921482216945</v>
+        <v>1.417280932287184</v>
       </c>
       <c r="C16">
-        <v>0.3964824103753699</v>
+        <v>0.105431292169591</v>
       </c>
       <c r="D16">
-        <v>0.5640371311899628</v>
+        <v>0.6354347845742723</v>
       </c>
       <c r="E16">
-        <v>0.04277909188374451</v>
+        <v>0.06128791275812162</v>
       </c>
       <c r="F16">
-        <v>9.858823803293006</v>
+        <v>10.00219511052921</v>
       </c>
       <c r="G16">
-        <v>0.0007892039351077845</v>
+        <v>0.0008328251769502173</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6775500158726047</v>
+        <v>1.131836823678611</v>
       </c>
       <c r="L16">
-        <v>0.2058081744267781</v>
+        <v>0.199711099865425</v>
       </c>
       <c r="M16">
-        <v>0.5130137775960151</v>
+        <v>0.302067791854931</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.794971762446835</v>
+        <v>1.356614218110366</v>
       </c>
       <c r="C17">
-        <v>0.3776193025774148</v>
+        <v>0.1014295762451169</v>
       </c>
       <c r="D17">
-        <v>0.5447395267381978</v>
+        <v>0.6161861065746734</v>
       </c>
       <c r="E17">
-        <v>0.04209610390661744</v>
+        <v>0.0599096639499237</v>
       </c>
       <c r="F17">
-        <v>9.466383012600573</v>
+        <v>9.639185607783674</v>
       </c>
       <c r="G17">
-        <v>0.0007939824631144621</v>
+        <v>0.0008367094813633727</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6446306139196949</v>
+        <v>1.078773128180615</v>
       </c>
       <c r="L17">
-        <v>0.1982518871870695</v>
+        <v>0.1927181017865678</v>
       </c>
       <c r="M17">
-        <v>0.4902174434939539</v>
+        <v>0.2898481045191801</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.717833819929808</v>
+        <v>1.322155570759634</v>
       </c>
       <c r="C18">
-        <v>0.3669222875683147</v>
+        <v>0.09915796506748364</v>
       </c>
       <c r="D18">
-        <v>0.5337580735565552</v>
+        <v>0.6051906076150146</v>
       </c>
       <c r="E18">
-        <v>0.04170889099606345</v>
+        <v>0.05912392357787333</v>
       </c>
       <c r="F18">
-        <v>9.243083843430924</v>
+        <v>9.431954315331296</v>
       </c>
       <c r="G18">
-        <v>0.0007967334620370195</v>
+        <v>0.0008389500986786164</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6259539310072597</v>
+        <v>1.048642731592423</v>
       </c>
       <c r="L18">
-        <v>0.1939606492590826</v>
+        <v>0.1887384000448549</v>
       </c>
       <c r="M18">
-        <v>0.4772799963249028</v>
+        <v>0.2829034365820817</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.69188903659375</v>
+        <v>1.310560238976905</v>
       </c>
       <c r="C19">
-        <v>0.3633251390909038</v>
+        <v>0.09839369590146418</v>
       </c>
       <c r="D19">
-        <v>0.5300591055759583</v>
+        <v>0.6014800233111401</v>
       </c>
       <c r="E19">
-        <v>0.04157869343821918</v>
+        <v>0.05885903907350531</v>
       </c>
       <c r="F19">
-        <v>9.167873445117749</v>
+        <v>9.36204497777203</v>
       </c>
       <c r="G19">
-        <v>0.0007976655000645483</v>
+        <v>0.0008397099361592996</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6196723731524898</v>
+        <v>1.038505310572788</v>
       </c>
       <c r="L19">
-        <v>0.1925167375862173</v>
+        <v>0.1873979656897404</v>
       </c>
       <c r="M19">
-        <v>0.472928154996346</v>
+        <v>0.2805659197849906</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.809332373048619</v>
+        <v>1.363026530310492</v>
       </c>
       <c r="C20">
-        <v>0.3796111565595197</v>
+        <v>0.1018523800507936</v>
       </c>
       <c r="D20">
-        <v>0.5467813081525037</v>
+        <v>0.6182271393710721</v>
       </c>
       <c r="E20">
-        <v>0.04216821264741277</v>
+        <v>0.06005564590416768</v>
       </c>
       <c r="F20">
-        <v>9.507903182670987</v>
+        <v>9.677663857477569</v>
       </c>
       <c r="G20">
-        <v>0.0007934735600317837</v>
+        <v>0.0008362953430872846</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6481077366056383</v>
+        <v>1.084380755416163</v>
       </c>
       <c r="L20">
-        <v>0.1990504824700992</v>
+        <v>0.1934580556386294</v>
       </c>
       <c r="M20">
-        <v>0.4926257648478298</v>
+        <v>0.2911401061985401</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.21724281386247</v>
+        <v>1.544739544857805</v>
       </c>
       <c r="C21">
-        <v>0.4362741064551017</v>
+        <v>0.113856376450066</v>
       </c>
       <c r="D21">
-        <v>0.6044633903374006</v>
+        <v>0.6754575020998743</v>
       </c>
       <c r="E21">
-        <v>0.04422089212115665</v>
+        <v>0.06416330204907084</v>
       </c>
       <c r="F21">
-        <v>10.6809781683952</v>
+        <v>10.75775560845773</v>
       </c>
       <c r="G21">
-        <v>0.0007794062197766898</v>
+        <v>0.0008248928919353516</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.746901401892174</v>
+        <v>1.243403797829842</v>
       </c>
       <c r="L21">
-        <v>0.2216916667759108</v>
+        <v>0.2143480387579899</v>
       </c>
       <c r="M21">
-        <v>0.5610017114388697</v>
+        <v>0.3277126179922831</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.495451543783986</v>
+        <v>1.668111186436732</v>
       </c>
       <c r="C22">
-        <v>0.4750542992579767</v>
+        <v>0.122045520310607</v>
       </c>
       <c r="D22">
-        <v>0.6434922909060958</v>
+        <v>0.7137134456497449</v>
       </c>
       <c r="E22">
-        <v>0.04562786263498175</v>
+        <v>0.06692174943114892</v>
       </c>
       <c r="F22">
-        <v>11.47457051872476</v>
+        <v>11.48068965559986</v>
       </c>
       <c r="G22">
-        <v>0.0007701932120641412</v>
+        <v>0.0008174757606726054</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8143253282790184</v>
+        <v>1.351515246451413</v>
       </c>
       <c r="L22">
-        <v>0.2370809855109854</v>
+        <v>0.2284462451414413</v>
       </c>
       <c r="M22">
-        <v>0.6075961997718196</v>
+        <v>0.3524989235657827</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.345785008914618</v>
+        <v>1.601804784103649</v>
       </c>
       <c r="C23">
-        <v>0.4541756232157468</v>
+        <v>0.1176393328194152</v>
       </c>
       <c r="D23">
-        <v>0.6225251500545141</v>
+        <v>0.6932082363302356</v>
       </c>
       <c r="E23">
-        <v>0.04487011708299438</v>
+        <v>0.06544214956881689</v>
       </c>
       <c r="F23">
-        <v>11.04826584080212</v>
+        <v>11.09312435053528</v>
       </c>
       <c r="G23">
-        <v>0.0007751143499264723</v>
+        <v>0.0008214323991176498</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7780483101115934</v>
+        <v>1.29339455910241</v>
       </c>
       <c r="L23">
-        <v>0.2288077582453241</v>
+        <v>0.2208775025198975</v>
       </c>
       <c r="M23">
-        <v>0.5825343864960217</v>
+        <v>0.3391818681333874</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.802836782596501</v>
+        <v>1.360126225219403</v>
       </c>
       <c r="C24">
-        <v>0.3787101835415143</v>
+        <v>0.1016611408314461</v>
       </c>
       <c r="D24">
-        <v>0.5458578697198675</v>
+        <v>0.617304169721848</v>
       </c>
       <c r="E24">
-        <v>0.04213559548041967</v>
+        <v>0.05998962692413201</v>
       </c>
       <c r="F24">
-        <v>9.489124742375992</v>
+        <v>9.660263302205749</v>
       </c>
       <c r="G24">
-        <v>0.0007937036229026013</v>
+        <v>0.0008364825515065247</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6465349593182808</v>
+        <v>1.081844381445819</v>
       </c>
       <c r="L24">
-        <v>0.1986892736166936</v>
+        <v>0.1931233965453174</v>
       </c>
       <c r="M24">
-        <v>0.4915364416998358</v>
+        <v>0.2905557426670669</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.256728801502334</v>
+        <v>1.115763665141003</v>
       </c>
       <c r="C25">
-        <v>0.302995029145805</v>
+        <v>0.0855444335225215</v>
       </c>
       <c r="D25">
-        <v>0.4675621685036617</v>
+        <v>0.5382515867744928</v>
       </c>
       <c r="E25">
-        <v>0.03939532780029431</v>
+        <v>0.05437047583667365</v>
       </c>
       <c r="F25">
-        <v>7.897850037726641</v>
+        <v>8.173064633640053</v>
       </c>
       <c r="G25">
-        <v>0.0008138677191342708</v>
+        <v>0.0008529736905186637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5143129525520536</v>
+        <v>0.8682828768618265</v>
       </c>
       <c r="L25">
-        <v>0.1682612858996251</v>
+        <v>0.1647813721619897</v>
       </c>
       <c r="M25">
-        <v>0.3999106266050774</v>
+        <v>0.2412483299616355</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9465764016671301</v>
+        <v>0.8939662141467011</v>
       </c>
       <c r="C2">
-        <v>0.07430575001447437</v>
+        <v>0.1223617705628897</v>
       </c>
       <c r="D2">
-        <v>0.4816652707650206</v>
+        <v>0.0660288377135565</v>
       </c>
       <c r="E2">
-        <v>0.05040575522018997</v>
+        <v>0.04566336700430895</v>
       </c>
       <c r="F2">
-        <v>7.114039547980951</v>
+        <v>0.9927144190903761</v>
       </c>
       <c r="G2">
-        <v>0.0008654407987632724</v>
+        <v>0.9403204719713472</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01058957879685095</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6611862826753026</v>
       </c>
       <c r="K2">
-        <v>0.7204734593254329</v>
+        <v>0.7414087628700798</v>
       </c>
       <c r="L2">
-        <v>0.1449802140182541</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2070247461445511</v>
+        <v>0.8608222508270842</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.165386397262985</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2003865810529568</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8372253379644121</v>
+        <v>0.7772392250574285</v>
       </c>
       <c r="C3">
-        <v>0.06694305829245906</v>
+        <v>0.1112743971342098</v>
       </c>
       <c r="D3">
-        <v>0.4439839194742063</v>
+        <v>0.06348820953291323</v>
       </c>
       <c r="E3">
-        <v>0.04780406648754365</v>
+        <v>0.04193291000096089</v>
       </c>
       <c r="F3">
-        <v>6.412762340497807</v>
+        <v>0.9406132311479851</v>
       </c>
       <c r="G3">
-        <v>0.0008741365606473953</v>
+        <v>0.8961102518867818</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01401258840528535</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6459475782402677</v>
       </c>
       <c r="K3">
-        <v>0.6248699621141469</v>
+        <v>0.7234138164046584</v>
       </c>
       <c r="L3">
-        <v>0.1320971762231267</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1848673435865216</v>
+        <v>0.7487839231437761</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1459076672361164</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1748096884427639</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7723032467699511</v>
+        <v>0.7057119544003569</v>
       </c>
       <c r="C4">
-        <v>0.06250842901069831</v>
+        <v>0.1044585217187972</v>
       </c>
       <c r="D4">
-        <v>0.4210775160564708</v>
+        <v>0.06189650666021151</v>
       </c>
       <c r="E4">
-        <v>0.04624217310302292</v>
+        <v>0.03964008165703703</v>
       </c>
       <c r="F4">
-        <v>5.988542959008868</v>
+        <v>0.9097403472939334</v>
       </c>
       <c r="G4">
-        <v>0.0008796102857063891</v>
+        <v>0.8700385530277686</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01643215632082595</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.63722484962517</v>
       </c>
       <c r="K4">
-        <v>0.5680449749327465</v>
+        <v>0.713059646428249</v>
       </c>
       <c r="L4">
-        <v>0.1244142100542192</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1716983657517979</v>
+        <v>0.6801009905549051</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1339608914519417</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1591282219832344</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7463517131905064</v>
+        <v>0.6765905187650674</v>
       </c>
       <c r="C5">
-        <v>0.06071770032950141</v>
+        <v>0.1016769447643711</v>
       </c>
       <c r="D5">
-        <v>0.411787454137226</v>
+        <v>0.06123989000955632</v>
       </c>
       <c r="E5">
-        <v>0.04561375779982413</v>
+        <v>0.0387042869577332</v>
       </c>
       <c r="F5">
-        <v>5.81703785551278</v>
+        <v>0.8974254023986958</v>
       </c>
       <c r="G5">
-        <v>0.0008818764193109927</v>
+        <v>0.8596695014937552</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01749473424119702</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6338231038817526</v>
       </c>
       <c r="K5">
-        <v>0.5453094632100317</v>
+        <v>0.7090072683143802</v>
       </c>
       <c r="L5">
-        <v>0.1213354769440826</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1664313614813473</v>
+        <v>0.6521291443613393</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1290936282751645</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.1527416959329955</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7420714883122059</v>
+        <v>0.6717562576404816</v>
       </c>
       <c r="C6">
-        <v>0.06042119893300679</v>
+        <v>0.1012147650781401</v>
       </c>
       <c r="D6">
-        <v>0.410247161942749</v>
+        <v>0.06113037706940716</v>
       </c>
       <c r="E6">
-        <v>0.04550987310425647</v>
+        <v>0.03854878689526231</v>
       </c>
       <c r="F6">
-        <v>5.788635702264372</v>
+        <v>0.8953961563203165</v>
       </c>
       <c r="G6">
-        <v>0.0008822549038673246</v>
+        <v>0.8579627392918923</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0176757049898309</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.6332672915897888</v>
       </c>
       <c r="K6">
-        <v>0.5415582869755013</v>
+        <v>0.7083442442412462</v>
       </c>
       <c r="L6">
-        <v>0.120827265825028</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1655625069055944</v>
+        <v>0.6474851745960848</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1282854301466188</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1516813927339875</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7719512790023373</v>
+        <v>0.7053191174901485</v>
       </c>
       <c r="C7">
-        <v>0.06248421870587606</v>
+        <v>0.104421027363145</v>
       </c>
       <c r="D7">
-        <v>0.4209520638381008</v>
+        <v>0.06188768362869723</v>
       </c>
       <c r="E7">
-        <v>0.04623366650475624</v>
+        <v>0.03962746818424279</v>
       </c>
       <c r="F7">
-        <v>5.986224738192476</v>
+        <v>0.9095732058914336</v>
       </c>
       <c r="G7">
-        <v>0.0008796407015858598</v>
+        <v>0.8698976971267314</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01644618084119337</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6371783621061411</v>
       </c>
       <c r="K7">
-        <v>0.567736714437757</v>
+        <v>0.7130043282378296</v>
       </c>
       <c r="L7">
-        <v>0.1243724844063649</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1716269431294819</v>
+        <v>0.6797236969361222</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.133895248017609</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1590420781740001</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9083777443533165</v>
+        <v>0.8536829705261368</v>
       </c>
       <c r="C8">
-        <v>0.07174592121783618</v>
+        <v>0.1185393043954903</v>
       </c>
       <c r="D8">
-        <v>0.468616584199907</v>
+        <v>0.0651594154265922</v>
       </c>
       <c r="E8">
-        <v>0.04950076601395281</v>
+        <v>0.0443770500330718</v>
       </c>
       <c r="F8">
-        <v>6.870770794768362</v>
+        <v>0.9745087471281124</v>
       </c>
       <c r="G8">
-        <v>0.0008684122669430418</v>
+        <v>0.9248449718896552</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01170181903978461</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6557963604482069</v>
       </c>
       <c r="K8">
-        <v>0.6870881438952381</v>
+        <v>0.7350551599443449</v>
       </c>
       <c r="L8">
-        <v>0.1404878219116341</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1992880666703485</v>
+        <v>0.8221623161025491</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1586660304368408</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.1915617140001515</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.196207664645499</v>
+        <v>1.146237422395131</v>
       </c>
       <c r="C9">
-        <v>0.09085557406105949</v>
+        <v>0.1462570935111103</v>
       </c>
       <c r="D9">
-        <v>0.5645793172939051</v>
+        <v>0.07132387931312678</v>
       </c>
       <c r="E9">
-        <v>0.05623322486737692</v>
+        <v>0.05371410438710456</v>
       </c>
       <c r="F9">
-        <v>8.667565875365995</v>
+        <v>1.111431370916279</v>
       </c>
       <c r="G9">
-        <v>0.0008473745542679052</v>
+        <v>1.041812032721936</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.005076745806923633</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6976497931545396</v>
       </c>
       <c r="K9">
-        <v>0.9385636033910316</v>
+        <v>0.7841764073947033</v>
       </c>
       <c r="L9">
-        <v>0.1741439509730398</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2574961865808305</v>
+        <v>1.102862036496674</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2074522666850811</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2556100553229683</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.424264741029532</v>
+        <v>1.361914333518797</v>
       </c>
       <c r="C10">
-        <v>0.1058922304663952</v>
+        <v>0.1691597117327035</v>
       </c>
       <c r="D10">
-        <v>0.6376420334309785</v>
+        <v>0.07668843898272826</v>
       </c>
       <c r="E10">
-        <v>0.06144616493169153</v>
+        <v>0.05795767737315316</v>
       </c>
       <c r="F10">
-        <v>10.04383864467783</v>
+        <v>1.199119101947318</v>
       </c>
       <c r="G10">
-        <v>0.000832382755473926</v>
+        <v>1.112404875658314</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.002381511948278625</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7210000537546506</v>
       </c>
       <c r="K10">
-        <v>1.137946899356905</v>
+        <v>0.8085154364802918</v>
       </c>
       <c r="L10">
-        <v>0.2005150203064545</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3034739337474193</v>
+        <v>1.315434815659955</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.231781206460397</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.2974925527210459</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.532708306709537</v>
+        <v>1.452097791063892</v>
       </c>
       <c r="C11">
-        <v>0.1130597728233695</v>
+        <v>0.202541133126303</v>
       </c>
       <c r="D11">
-        <v>0.6717023160849465</v>
+        <v>0.08919085503705304</v>
       </c>
       <c r="E11">
-        <v>0.06389302013351283</v>
+        <v>0.04208596700152878</v>
       </c>
       <c r="F11">
-        <v>10.68682650840896</v>
+        <v>1.073297762224627</v>
       </c>
       <c r="G11">
-        <v>0.0008256293369159906</v>
+        <v>0.9624351292893181</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02084481334027899</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6394128376769004</v>
       </c>
       <c r="K11">
-        <v>1.232867436748307</v>
+        <v>0.6897512391971858</v>
       </c>
       <c r="L11">
-        <v>0.2129695551333839</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3252935494648028</v>
+        <v>1.455423303135035</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1523852570700441</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.270032323136796</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.574554474739244</v>
+        <v>1.482473630144142</v>
       </c>
       <c r="C12">
-        <v>0.1158318797354454</v>
+        <v>0.2289391016055902</v>
       </c>
       <c r="D12">
-        <v>0.6847440297472644</v>
+        <v>0.1006419976044342</v>
       </c>
       <c r="E12">
-        <v>0.06483210204259393</v>
+        <v>0.03529950378438929</v>
       </c>
       <c r="F12">
-        <v>10.93319090222872</v>
+        <v>0.9536833968846139</v>
       </c>
       <c r="G12">
-        <v>0.0008230782856094062</v>
+        <v>0.8295196820178177</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05968717099570853</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.569572617384793</v>
       </c>
       <c r="K12">
-        <v>1.269519202467336</v>
+        <v>0.5929642515243359</v>
       </c>
       <c r="L12">
-        <v>0.2177613033475723</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3337059165900129</v>
+        <v>1.530938593431188</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.09637868787725523</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.2393901028344523</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.56550558997219</v>
+        <v>1.468229005381659</v>
       </c>
       <c r="C13">
-        <v>0.1152320908164697</v>
+        <v>0.2511078976229015</v>
       </c>
       <c r="D13">
-        <v>0.6819284269057846</v>
+        <v>0.1117380256206459</v>
       </c>
       <c r="E13">
-        <v>0.06462926876565334</v>
+        <v>0.03498709912645559</v>
       </c>
       <c r="F13">
-        <v>10.87999614047055</v>
+        <v>0.8317141948249684</v>
       </c>
       <c r="G13">
-        <v>0.0008236274748980626</v>
+        <v>0.7017766103705156</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1158694221927163</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5045003242093742</v>
       </c>
       <c r="K13">
-        <v>1.261592372880898</v>
+        <v>0.507187230710727</v>
       </c>
       <c r="L13">
-        <v>0.2167257909656541</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3318871592870067</v>
+        <v>1.560345778610298</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0553135425315503</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.2047755549163668</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.536134710641562</v>
+        <v>1.43811951798429</v>
       </c>
       <c r="C14">
-        <v>0.1132866070740377</v>
+        <v>0.2648861064986079</v>
       </c>
       <c r="D14">
-        <v>0.6727722260671953</v>
+        <v>0.1194706933445318</v>
       </c>
       <c r="E14">
-        <v>0.06397001795098944</v>
+        <v>0.03863694749309321</v>
       </c>
       <c r="F14">
-        <v>10.70703459133938</v>
+        <v>0.7466355780643141</v>
       </c>
       <c r="G14">
-        <v>0.0008254193537889369</v>
+        <v>0.6164886617916068</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1656491812295542</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4619264743376874</v>
       </c>
       <c r="K14">
-        <v>1.235867995450008</v>
+        <v>0.4536045892731764</v>
       </c>
       <c r="L14">
-        <v>0.2133622028164979</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3259825160612309</v>
+        <v>1.560051850501111</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.03570775163189488</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.179202662004819</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.518249268834865</v>
+        <v>1.421297740401144</v>
       </c>
       <c r="C15">
-        <v>0.1121028339343511</v>
+        <v>0.2668726522824159</v>
       </c>
       <c r="D15">
-        <v>0.6671833283327828</v>
+        <v>0.1209732504326695</v>
       </c>
       <c r="E15">
-        <v>0.06356789001641161</v>
+        <v>0.03990655941942833</v>
       </c>
       <c r="F15">
-        <v>10.60147981090654</v>
+        <v>0.7248706558449882</v>
       </c>
       <c r="G15">
-        <v>0.0008265176514791831</v>
+        <v>0.5958156065885305</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1783663393108981</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4521034396765202</v>
       </c>
       <c r="K15">
-        <v>1.220206422608641</v>
+        <v>0.4418304336495638</v>
       </c>
       <c r="L15">
-        <v>0.2113120447285581</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3223858852206973</v>
+        <v>1.549745222513252</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.03206573638717636</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.1720178521220426</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.417280932287184</v>
+        <v>1.331071273242941</v>
       </c>
       <c r="C16">
-        <v>0.105431292169591</v>
+        <v>0.2514902059450321</v>
       </c>
       <c r="D16">
-        <v>0.6354347845742723</v>
+        <v>0.1158557664189317</v>
       </c>
       <c r="E16">
-        <v>0.06128791275812162</v>
+        <v>0.03809960130505452</v>
       </c>
       <c r="F16">
-        <v>10.00219511052921</v>
+        <v>0.7126780287856462</v>
       </c>
       <c r="G16">
-        <v>0.0008328251769502173</v>
+        <v>0.5921539004923204</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1667810780544414</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4553462061394242</v>
       </c>
       <c r="K16">
-        <v>1.131836823678611</v>
+        <v>0.4489906303888276</v>
       </c>
       <c r="L16">
-        <v>0.199711099865425</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.302067791854931</v>
+        <v>1.450355037020387</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.03139682416328071</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1621254942848687</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.356614218110366</v>
+        <v>1.2780632233125</v>
       </c>
       <c r="C17">
-        <v>0.1014295762451169</v>
+        <v>0.2323337734767676</v>
       </c>
       <c r="D17">
-        <v>0.6161861065746734</v>
+        <v>0.1077742911508608</v>
       </c>
       <c r="E17">
-        <v>0.0599096639499237</v>
+        <v>0.03413279191581076</v>
       </c>
       <c r="F17">
-        <v>9.639185607783674</v>
+        <v>0.7480641712808449</v>
       </c>
       <c r="G17">
-        <v>0.0008367094813633727</v>
+        <v>0.633907463467267</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1296880831094427</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4801753323534115</v>
       </c>
       <c r="K17">
-        <v>1.078773128180615</v>
+        <v>0.4822769949517252</v>
       </c>
       <c r="L17">
-        <v>0.1927181017865678</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2898481045191801</v>
+        <v>1.374605369449228</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.03960159165151467</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.1677980435120716</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.322155570759634</v>
+        <v>1.250769466800989</v>
       </c>
       <c r="C18">
-        <v>0.09915796506748364</v>
+        <v>0.2090461143078954</v>
       </c>
       <c r="D18">
-        <v>0.6051906076150146</v>
+        <v>0.09712165519503202</v>
       </c>
       <c r="E18">
-        <v>0.05912392357787333</v>
+        <v>0.03146761807790632</v>
       </c>
       <c r="F18">
-        <v>9.431954315331296</v>
+        <v>0.8313081969200979</v>
       </c>
       <c r="G18">
-        <v>0.0008389500986786164</v>
+        <v>0.7240981278074798</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07699891337616549</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5285555354409297</v>
       </c>
       <c r="K18">
-        <v>1.048642731592423</v>
+        <v>0.5463193137065616</v>
       </c>
       <c r="L18">
-        <v>0.1887384000448549</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2829034365820817</v>
+        <v>1.311195798574516</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06439294903287873</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.1883480267643272</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.310560238976905</v>
+        <v>1.246078230969317</v>
       </c>
       <c r="C19">
-        <v>0.09839369590146418</v>
+        <v>0.1859286462805869</v>
       </c>
       <c r="D19">
-        <v>0.6014800233111401</v>
+        <v>0.08640670989622379</v>
       </c>
       <c r="E19">
-        <v>0.05885903907350531</v>
+        <v>0.03541170160885088</v>
       </c>
       <c r="F19">
-        <v>9.36204497777203</v>
+        <v>0.9522830953925734</v>
       </c>
       <c r="G19">
-        <v>0.0008397099361592996</v>
+        <v>0.8544918291312911</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03121108651462379</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5960058226249458</v>
       </c>
       <c r="K19">
-        <v>1.038505310572788</v>
+        <v>0.6376287255169402</v>
       </c>
       <c r="L19">
-        <v>0.1873979656897404</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2805659197849906</v>
+        <v>1.263304059959268</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1129258566645319</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.2208794257446485</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.363026530310492</v>
+        <v>1.305106271975632</v>
       </c>
       <c r="C20">
-        <v>0.1018523800507936</v>
+        <v>0.1632159228686305</v>
       </c>
       <c r="D20">
-        <v>0.6182271393710721</v>
+        <v>0.07532374302159894</v>
       </c>
       <c r="E20">
-        <v>0.06005564590416768</v>
+        <v>0.05671818860251676</v>
       </c>
       <c r="F20">
-        <v>9.677663857477569</v>
+        <v>1.174756312730196</v>
       </c>
       <c r="G20">
-        <v>0.0008362953430872846</v>
+        <v>1.092453191549325</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002952163020863097</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7141264329427059</v>
       </c>
       <c r="K20">
-        <v>1.084380755416163</v>
+        <v>0.8011487283151766</v>
       </c>
       <c r="L20">
-        <v>0.1934580556386294</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2911401061985401</v>
+        <v>1.259664943133203</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2248802544394692</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.2862502531443383</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.544739544857805</v>
+        <v>1.472834468620789</v>
       </c>
       <c r="C21">
-        <v>0.113856376450066</v>
+        <v>0.1772276960587504</v>
       </c>
       <c r="D21">
-        <v>0.6754575020998743</v>
+        <v>0.0778725149190862</v>
       </c>
       <c r="E21">
-        <v>0.06416330204907084</v>
+        <v>0.0641852014266977</v>
       </c>
       <c r="F21">
-        <v>10.75775560845773</v>
+        <v>1.275189475562613</v>
       </c>
       <c r="G21">
-        <v>0.0008248928919353516</v>
+        <v>1.183054254960695</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001077036886006466</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7505688223795062</v>
       </c>
       <c r="K21">
-        <v>1.243403797829842</v>
+        <v>0.8458578372528081</v>
       </c>
       <c r="L21">
-        <v>0.2143480387579899</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3277126179922831</v>
+        <v>1.41621730161151</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2619286887274654</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3270059375815677</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.668111186436732</v>
+        <v>1.582521354373938</v>
       </c>
       <c r="C22">
-        <v>0.122045520310607</v>
+        <v>0.1876663501529379</v>
       </c>
       <c r="D22">
-        <v>0.7137134456497449</v>
+        <v>0.08000903004539595</v>
       </c>
       <c r="E22">
-        <v>0.06692174943114892</v>
+        <v>0.0677257691930695</v>
       </c>
       <c r="F22">
-        <v>11.48068965559986</v>
+        <v>1.332352681402668</v>
       </c>
       <c r="G22">
-        <v>0.0008174757606726054</v>
+        <v>1.232622977378057</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.000415538676745042</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7695521676288593</v>
       </c>
       <c r="K22">
-        <v>1.351515246451413</v>
+        <v>0.8679185976226407</v>
       </c>
       <c r="L22">
-        <v>0.2284462451414413</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3524989235657827</v>
+        <v>1.521491709217031</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2802411893017052</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.35096070026853</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.601804784103649</v>
+        <v>1.523923722145042</v>
       </c>
       <c r="C23">
-        <v>0.1176393328194152</v>
+        <v>0.1820866804341961</v>
       </c>
       <c r="D23">
-        <v>0.6932082363302356</v>
+        <v>0.07887120979998485</v>
       </c>
       <c r="E23">
-        <v>0.06544214956881689</v>
+        <v>0.06583251706330984</v>
       </c>
       <c r="F23">
-        <v>11.09312435053528</v>
+        <v>1.301688659657898</v>
       </c>
       <c r="G23">
-        <v>0.0008214323991176498</v>
+        <v>1.206017604246341</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0007290883601283049</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7593408935155281</v>
       </c>
       <c r="K23">
-        <v>1.29339455910241</v>
+        <v>0.8560553184132118</v>
       </c>
       <c r="L23">
-        <v>0.2208775025198975</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3391818681333874</v>
+        <v>1.465248296185251</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2704568239730776</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3381648702678035</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.360126225219403</v>
+        <v>1.303128222584292</v>
       </c>
       <c r="C24">
-        <v>0.1016611408314461</v>
+        <v>0.1611192952393168</v>
       </c>
       <c r="D24">
-        <v>0.617304169721848</v>
+        <v>0.07450734182219065</v>
       </c>
       <c r="E24">
-        <v>0.05998962692413201</v>
+        <v>0.05873304896058329</v>
       </c>
       <c r="F24">
-        <v>9.660263302205749</v>
+        <v>1.188823538870139</v>
       </c>
       <c r="G24">
-        <v>0.0008364825515065247</v>
+        <v>1.108410182321833</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002755638084576462</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7223549213485541</v>
       </c>
       <c r="K24">
-        <v>1.081844381445819</v>
+        <v>0.8130127021215117</v>
       </c>
       <c r="L24">
-        <v>0.1931233965453174</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2905557426670669</v>
+        <v>1.253378643931484</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2336145565540022</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.2899204539673974</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.115763665141003</v>
+        <v>1.066849358701091</v>
       </c>
       <c r="C25">
-        <v>0.0855444335225215</v>
+        <v>0.1387408993975328</v>
       </c>
       <c r="D25">
-        <v>0.5382515867744928</v>
+        <v>0.06968302048127839</v>
       </c>
       <c r="E25">
-        <v>0.05437047583667365</v>
+        <v>0.05117959687298601</v>
       </c>
       <c r="F25">
-        <v>8.173064633640053</v>
+        <v>1.073258319428362</v>
       </c>
       <c r="G25">
-        <v>0.0008529736905186637</v>
+        <v>1.009080039083159</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.00655946456363532</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6857090536627055</v>
       </c>
       <c r="K25">
-        <v>0.8682828768618265</v>
+        <v>0.7702044425711705</v>
       </c>
       <c r="L25">
-        <v>0.1647813721619897</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2412483299616355</v>
+        <v>1.026700643907446</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1942159875579179</v>
       </c>
       <c r="O25">
+        <v>0.238239054700685</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_63/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_63/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8939662141467011</v>
+        <v>0.8753579761175274</v>
       </c>
       <c r="C2">
-        <v>0.1223617705628897</v>
+        <v>0.1316920663977896</v>
       </c>
       <c r="D2">
-        <v>0.0660288377135565</v>
+        <v>0.06842850368374798</v>
       </c>
       <c r="E2">
-        <v>0.04566336700430895</v>
+        <v>0.04222887396325525</v>
       </c>
       <c r="F2">
-        <v>0.9927144190903761</v>
+        <v>0.8427516415150009</v>
       </c>
       <c r="G2">
-        <v>0.9403204719713472</v>
+        <v>0.76151601116824</v>
       </c>
       <c r="H2">
-        <v>0.01058957879685095</v>
+        <v>0.008068112160655144</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6611862826753026</v>
+        <v>0.5853579465304364</v>
       </c>
       <c r="K2">
-        <v>0.7414087628700798</v>
+        <v>0.5984800816282956</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2560610974981223</v>
       </c>
       <c r="M2">
-        <v>0.8608222508270842</v>
+        <v>0.1948528519535131</v>
       </c>
       <c r="N2">
-        <v>0.165386397262985</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2003865810529568</v>
+        <v>0.8993847557139247</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1786836148355704</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.1994225536545819</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7772392250574285</v>
+        <v>0.7629558546818771</v>
       </c>
       <c r="C3">
-        <v>0.1112743971342098</v>
+        <v>0.1158749247018278</v>
       </c>
       <c r="D3">
-        <v>0.06348820953291323</v>
+        <v>0.06423957896652865</v>
       </c>
       <c r="E3">
-        <v>0.04193291000096089</v>
+        <v>0.03926335734530184</v>
       </c>
       <c r="F3">
-        <v>0.9406132311479851</v>
+        <v>0.8066386834592336</v>
       </c>
       <c r="G3">
-        <v>0.8961102518867818</v>
+        <v>0.7376244742541047</v>
       </c>
       <c r="H3">
-        <v>0.01401258840528535</v>
+        <v>0.0107410069993979</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6459475782402677</v>
+        <v>0.5732320385439635</v>
       </c>
       <c r="K3">
-        <v>0.7234138164046584</v>
+        <v>0.5922514387632489</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2585073359256675</v>
       </c>
       <c r="M3">
-        <v>0.7487839231437761</v>
+        <v>0.1891616973568873</v>
       </c>
       <c r="N3">
-        <v>0.1459076672361164</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1748096884427639</v>
+        <v>0.7820660236054664</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1587079740173181</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1740455095025659</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7057119544003569</v>
+        <v>0.6939049233905337</v>
       </c>
       <c r="C4">
-        <v>0.1044585217187972</v>
+        <v>0.1062335543349491</v>
       </c>
       <c r="D4">
-        <v>0.06189650666021151</v>
+        <v>0.06165555712332704</v>
       </c>
       <c r="E4">
-        <v>0.03964008165703703</v>
+        <v>0.03743232185967393</v>
       </c>
       <c r="F4">
-        <v>0.9097403472939334</v>
+        <v>0.7852654028154404</v>
       </c>
       <c r="G4">
-        <v>0.8700385530277686</v>
+        <v>0.7239023322679117</v>
       </c>
       <c r="H4">
-        <v>0.01643215632082595</v>
+        <v>0.01263606346894469</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.63722484962517</v>
+        <v>0.5660222467326861</v>
       </c>
       <c r="K4">
-        <v>0.713059646428249</v>
+        <v>0.5888793601314006</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.260043438584713</v>
       </c>
       <c r="M4">
-        <v>0.6801009905549051</v>
+        <v>0.1865046574380287</v>
       </c>
       <c r="N4">
-        <v>0.1339608914519417</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1591282219832344</v>
+        <v>0.7101101848499809</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1464517792945372</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1584696903954388</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6765905187650674</v>
+        <v>0.6657503956852793</v>
       </c>
       <c r="C5">
-        <v>0.1016769447643711</v>
+        <v>0.102319898412631</v>
       </c>
       <c r="D5">
-        <v>0.06123989000955632</v>
+        <v>0.06059941878095287</v>
       </c>
       <c r="E5">
-        <v>0.0387042869577332</v>
+        <v>0.03668295552582279</v>
       </c>
       <c r="F5">
-        <v>0.8974254023986958</v>
+        <v>0.7767454335070454</v>
       </c>
       <c r="G5">
-        <v>0.8596695014937552</v>
+        <v>0.7185354852681627</v>
       </c>
       <c r="H5">
-        <v>0.01749473424119702</v>
+        <v>0.01346953992878744</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6338231038817526</v>
+        <v>0.5631405458899792</v>
       </c>
       <c r="K5">
-        <v>0.7090072683143802</v>
+        <v>0.5876137847904417</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2606776479732673</v>
       </c>
       <c r="M5">
-        <v>0.6521291443613393</v>
+        <v>0.1856285863774474</v>
       </c>
       <c r="N5">
-        <v>0.1290936282751645</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1527416959329955</v>
+        <v>0.6807989300912993</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1414578608332491</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1521223306709736</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6717562576404816</v>
+        <v>0.6610742187247354</v>
       </c>
       <c r="C6">
-        <v>0.1012147650781401</v>
+        <v>0.1016708933392607</v>
       </c>
       <c r="D6">
-        <v>0.06113037706940716</v>
+        <v>0.06042385585663723</v>
       </c>
       <c r="E6">
-        <v>0.03854878689526231</v>
+        <v>0.03655831208476279</v>
       </c>
       <c r="F6">
-        <v>0.8953961563203165</v>
+        <v>0.7753418391430742</v>
       </c>
       <c r="G6">
-        <v>0.8579627392918923</v>
+        <v>0.7176575411555888</v>
       </c>
       <c r="H6">
-        <v>0.0176757049898309</v>
+        <v>0.01361156120194429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.6332672915897888</v>
+        <v>0.5626653628768707</v>
       </c>
       <c r="K6">
-        <v>0.7083442442412462</v>
+        <v>0.5874100474081452</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.260783445676708</v>
       </c>
       <c r="M6">
-        <v>0.6474851745960848</v>
+        <v>0.1854954899559225</v>
       </c>
       <c r="N6">
-        <v>0.1282854301466188</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1516813927339875</v>
+        <v>0.6759322678955897</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1406286123091718</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.1510683077204007</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7053191174901485</v>
+        <v>0.6937247594199789</v>
       </c>
       <c r="C7">
-        <v>0.104421027363145</v>
+        <v>0.1059320688127769</v>
       </c>
       <c r="D7">
-        <v>0.06188768362869723</v>
+        <v>0.06176909733058977</v>
       </c>
       <c r="E7">
-        <v>0.03962746818424279</v>
+        <v>0.03743612845486233</v>
       </c>
       <c r="F7">
-        <v>0.9095732058914336</v>
+        <v>0.7831034673059278</v>
       </c>
       <c r="G7">
-        <v>0.8698976971267314</v>
+        <v>0.7264485077070475</v>
       </c>
       <c r="H7">
-        <v>0.01644618084119337</v>
+        <v>0.01265696336395544</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6371783621061411</v>
+        <v>0.5597181869107146</v>
       </c>
       <c r="K7">
-        <v>0.7130043282378296</v>
+        <v>0.5875739490819534</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2594858030371263</v>
       </c>
       <c r="M7">
-        <v>0.6797236969361222</v>
+        <v>0.186093383491805</v>
       </c>
       <c r="N7">
-        <v>0.133895248017609</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1590420781740001</v>
+        <v>0.7094005863690711</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1463180811832956</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1583949485506437</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8536829705261368</v>
+        <v>0.8372682855774087</v>
       </c>
       <c r="C8">
-        <v>0.1185393043954903</v>
+        <v>0.1253786644720094</v>
       </c>
       <c r="D8">
-        <v>0.0651594154265922</v>
+        <v>0.06743073035016067</v>
       </c>
       <c r="E8">
-        <v>0.0443770500330718</v>
+        <v>0.04125613014382346</v>
       </c>
       <c r="F8">
-        <v>0.9745087471281124</v>
+        <v>0.8233874780882715</v>
       </c>
       <c r="G8">
-        <v>0.9248449718896552</v>
+        <v>0.7618385442096809</v>
       </c>
       <c r="H8">
-        <v>0.01170181903978461</v>
+        <v>0.008961110420753343</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6557963604482069</v>
+        <v>0.5606945826756942</v>
       </c>
       <c r="K8">
-        <v>0.7350551599443449</v>
+        <v>0.5920373319052175</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2551612473586111</v>
       </c>
       <c r="M8">
-        <v>0.8221623161025491</v>
+        <v>0.1913038000047926</v>
       </c>
       <c r="N8">
-        <v>0.1586660304368408</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1915617140001515</v>
+        <v>0.8578522582616301</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1715728346754446</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1907056622426602</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.146237422395131</v>
+        <v>1.118084029458828</v>
       </c>
       <c r="C9">
-        <v>0.1462570935111103</v>
+        <v>0.1650878015794746</v>
       </c>
       <c r="D9">
-        <v>0.07132387931312678</v>
+        <v>0.07797805890193388</v>
       </c>
       <c r="E9">
-        <v>0.05371410438710456</v>
+        <v>0.04864558875480363</v>
       </c>
       <c r="F9">
-        <v>1.111431370916279</v>
+        <v>0.9167035184480739</v>
       </c>
       <c r="G9">
-        <v>1.041812032721936</v>
+        <v>0.8297982351702586</v>
       </c>
       <c r="H9">
-        <v>0.005076745806923633</v>
+        <v>0.003813047024023741</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6976497931545396</v>
+        <v>0.5869495709702193</v>
       </c>
       <c r="K9">
-        <v>0.7841764073947033</v>
+        <v>0.6093001607058923</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2490342813063933</v>
       </c>
       <c r="M9">
-        <v>1.102862036496674</v>
+        <v>0.2097868868604706</v>
       </c>
       <c r="N9">
-        <v>0.2074522666850811</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2556100553229683</v>
+        <v>1.151137690505465</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2214891050697503</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2541494276429574</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.361914333518797</v>
+        <v>1.325866010020178</v>
       </c>
       <c r="C10">
-        <v>0.1691597117327035</v>
+        <v>0.1956286780949625</v>
       </c>
       <c r="D10">
-        <v>0.07668843898272826</v>
+        <v>0.08768594488824988</v>
       </c>
       <c r="E10">
-        <v>0.05795767737315316</v>
+        <v>0.05186328054814382</v>
       </c>
       <c r="F10">
-        <v>1.199119101947318</v>
+        <v>0.9637897589176561</v>
       </c>
       <c r="G10">
-        <v>1.112404875658314</v>
+        <v>0.8850762229437521</v>
       </c>
       <c r="H10">
-        <v>0.002381511948278625</v>
+        <v>0.001811764688946838</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.7210000537546506</v>
+        <v>0.5657618217214093</v>
       </c>
       <c r="K10">
-        <v>0.8085154364802918</v>
+        <v>0.6067038105828502</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2383539397613887</v>
       </c>
       <c r="M10">
-        <v>1.315434815659955</v>
+        <v>0.2206803695839454</v>
       </c>
       <c r="N10">
-        <v>0.231781206460397</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.2974925527210459</v>
+        <v>1.370052621877733</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.245770022413609</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.2955772169425614</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.452097791063892</v>
+        <v>1.420610378164668</v>
       </c>
       <c r="C11">
-        <v>0.202541133126303</v>
+        <v>0.228513194164762</v>
       </c>
       <c r="D11">
-        <v>0.08919085503705304</v>
+        <v>0.1051337789278648</v>
       </c>
       <c r="E11">
-        <v>0.04208596700152878</v>
+        <v>0.03851782266698311</v>
       </c>
       <c r="F11">
-        <v>1.073297762224627</v>
+        <v>0.8434018509365444</v>
       </c>
       <c r="G11">
-        <v>0.9624351292893181</v>
+        <v>0.7998170715753332</v>
       </c>
       <c r="H11">
-        <v>0.02084481334027899</v>
+        <v>0.02036693481175078</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6394128376769004</v>
+        <v>0.446337680776864</v>
       </c>
       <c r="K11">
-        <v>0.6897512391971858</v>
+        <v>0.5069489627379369</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1995141870454482</v>
       </c>
       <c r="M11">
-        <v>1.455423303135035</v>
+        <v>0.1860993110777329</v>
       </c>
       <c r="N11">
-        <v>0.1523852570700441</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.270032323136796</v>
+        <v>1.503762407390894</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1624896787018315</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2684514495898185</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.482473630144142</v>
+        <v>1.456081721297011</v>
       </c>
       <c r="C12">
-        <v>0.2289391016055902</v>
+        <v>0.2525642607412948</v>
       </c>
       <c r="D12">
-        <v>0.1006419976044342</v>
+        <v>0.1191317836868393</v>
       </c>
       <c r="E12">
-        <v>0.03529950378438929</v>
+        <v>0.03352883602298301</v>
       </c>
       <c r="F12">
-        <v>0.9536833968846139</v>
+        <v>0.7440019084135798</v>
       </c>
       <c r="G12">
-        <v>0.8295196820178177</v>
+        <v>0.7098593198088139</v>
       </c>
       <c r="H12">
-        <v>0.05968717099570853</v>
+        <v>0.05920063697054445</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.569572617384793</v>
+        <v>0.3804528795614033</v>
       </c>
       <c r="K12">
-        <v>0.5929642515243359</v>
+        <v>0.4352915396381505</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1739760886611386</v>
       </c>
       <c r="M12">
-        <v>1.530938593431188</v>
+        <v>0.1584517155081819</v>
       </c>
       <c r="N12">
-        <v>0.09637868787725523</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2393901028344523</v>
+        <v>1.573340815138295</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1039124721829694</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2381367254620415</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.468229005381659</v>
+        <v>1.447010344740562</v>
       </c>
       <c r="C13">
-        <v>0.2511078976229015</v>
+        <v>0.2719207723717147</v>
       </c>
       <c r="D13">
-        <v>0.1117380256206459</v>
+        <v>0.1300813451872642</v>
       </c>
       <c r="E13">
-        <v>0.03498709912645559</v>
+        <v>0.0346565574325588</v>
       </c>
       <c r="F13">
-        <v>0.8317141948249684</v>
+        <v>0.6569118542425301</v>
       </c>
       <c r="G13">
-        <v>0.7017766103705156</v>
+        <v>0.6067205695387941</v>
       </c>
       <c r="H13">
-        <v>0.1158694221927163</v>
+        <v>0.1152829555027779</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5045003242093742</v>
+        <v>0.3500553865555034</v>
       </c>
       <c r="K13">
-        <v>0.507187230710727</v>
+        <v>0.3807802573744183</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1559985689881067</v>
       </c>
       <c r="M13">
-        <v>1.560345778610298</v>
+        <v>0.1353414210352639</v>
       </c>
       <c r="N13">
-        <v>0.0553135425315503</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2047755549163668</v>
+        <v>1.597788981178894</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.06107439908225842</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2038250681060703</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.43811951798429</v>
+        <v>1.420525984214777</v>
       </c>
       <c r="C14">
-        <v>0.2648861064986079</v>
+        <v>0.2835207758925549</v>
       </c>
       <c r="D14">
-        <v>0.1194706933445318</v>
+        <v>0.1362741698421814</v>
       </c>
       <c r="E14">
-        <v>0.03863694749309321</v>
+        <v>0.03915296174820249</v>
       </c>
       <c r="F14">
-        <v>0.7466355780643141</v>
+        <v>0.6010658966366478</v>
       </c>
       <c r="G14">
-        <v>0.6164886617916068</v>
+        <v>0.531823300527364</v>
       </c>
       <c r="H14">
-        <v>0.1656491812295542</v>
+        <v>0.1649438506070595</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4619264743376874</v>
+        <v>0.3408383207870145</v>
       </c>
       <c r="K14">
-        <v>0.4536045892731764</v>
+        <v>0.350069205387836</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1463752839610883</v>
       </c>
       <c r="M14">
-        <v>1.560051850501111</v>
+        <v>0.1214594826352666</v>
       </c>
       <c r="N14">
-        <v>0.03570775163189488</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.179202662004819</v>
+        <v>1.594427286081356</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.04054554784320175</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1784434395234236</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.421297740401144</v>
+        <v>1.404597834980393</v>
       </c>
       <c r="C15">
-        <v>0.2668726522824159</v>
+        <v>0.2850259951315621</v>
       </c>
       <c r="D15">
-        <v>0.1209732504326695</v>
+        <v>0.1368439230296019</v>
       </c>
       <c r="E15">
-        <v>0.03990655941942833</v>
+        <v>0.04063376217518133</v>
       </c>
       <c r="F15">
-        <v>0.7248706558449882</v>
+        <v>0.5887995229621268</v>
       </c>
       <c r="G15">
-        <v>0.5958156065885305</v>
+        <v>0.5115114699687524</v>
       </c>
       <c r="H15">
-        <v>0.1783663393108981</v>
+        <v>0.1776024177459448</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4521034396765202</v>
+        <v>0.3432308566617337</v>
       </c>
       <c r="K15">
-        <v>0.4418304336495638</v>
+        <v>0.3447180551638773</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1448961729241365</v>
       </c>
       <c r="M15">
-        <v>1.549745222513252</v>
+        <v>0.1186598312617662</v>
       </c>
       <c r="N15">
-        <v>0.03206573638717636</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1720178521220426</v>
+        <v>1.583591319875552</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.03675538539710743</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.1713027596471797</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.331071273242941</v>
+        <v>1.314707541352846</v>
       </c>
       <c r="C16">
-        <v>0.2514902059450321</v>
+        <v>0.2700863769608333</v>
       </c>
       <c r="D16">
-        <v>0.1158557664189317</v>
+        <v>0.1274299383750161</v>
       </c>
       <c r="E16">
-        <v>0.03809960130505452</v>
+        <v>0.03905105950229704</v>
       </c>
       <c r="F16">
-        <v>0.7126780287856462</v>
+        <v>0.5986731860601893</v>
       </c>
       <c r="G16">
-        <v>0.5921539004923204</v>
+        <v>0.4913680044638795</v>
       </c>
       <c r="H16">
-        <v>0.1667810780544414</v>
+        <v>0.1657013717426423</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4553462061394242</v>
+        <v>0.3861493131091933</v>
       </c>
       <c r="K16">
-        <v>0.4489906303888276</v>
+        <v>0.3615187360871062</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1522402555612121</v>
       </c>
       <c r="M16">
-        <v>1.450355037020387</v>
+        <v>0.1225805919757157</v>
       </c>
       <c r="N16">
-        <v>0.03139682416328071</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1621254942848687</v>
+        <v>1.485921527120297</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.03664419436923438</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1614205888741829</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.2780632233125</v>
+        <v>1.260383005811576</v>
       </c>
       <c r="C17">
-        <v>0.2323337734767676</v>
+        <v>0.2517899102540468</v>
       </c>
       <c r="D17">
-        <v>0.1077742911508608</v>
+        <v>0.1175455387414317</v>
       </c>
       <c r="E17">
-        <v>0.03413279191581076</v>
+        <v>0.03474978743154988</v>
       </c>
       <c r="F17">
-        <v>0.7480641712808449</v>
+        <v>0.6345914328455535</v>
       </c>
       <c r="G17">
-        <v>0.633907463467267</v>
+        <v>0.5167948425322919</v>
       </c>
       <c r="H17">
-        <v>0.1296880831094427</v>
+        <v>0.1284237114001314</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4801753323534115</v>
+        <v>0.423558729758895</v>
       </c>
       <c r="K17">
-        <v>0.4822769949517252</v>
+        <v>0.3905588199646424</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1635177179242611</v>
       </c>
       <c r="M17">
-        <v>1.374605369449228</v>
+        <v>0.1324085760895244</v>
       </c>
       <c r="N17">
-        <v>0.03960159165151467</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1677980435120716</v>
+        <v>1.412491542806777</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.04579354057055696</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1670203338629044</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.250769466800989</v>
+        <v>1.229838613166208</v>
       </c>
       <c r="C18">
-        <v>0.2090461143078954</v>
+        <v>0.2301121660506595</v>
       </c>
       <c r="D18">
-        <v>0.09712165519503202</v>
+        <v>0.1062477734866221</v>
       </c>
       <c r="E18">
-        <v>0.03146761807790632</v>
+        <v>0.03108012409493011</v>
       </c>
       <c r="F18">
-        <v>0.8313081969200979</v>
+        <v>0.7026440238156653</v>
       </c>
       <c r="G18">
-        <v>0.7240981278074798</v>
+        <v>0.5822234999524767</v>
       </c>
       <c r="H18">
-        <v>0.07699891337616549</v>
+        <v>0.07569252008576655</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5285555354409297</v>
+        <v>0.4687439709768597</v>
       </c>
       <c r="K18">
-        <v>0.5463193137065616</v>
+        <v>0.4384141848766205</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1814491025036951</v>
       </c>
       <c r="M18">
-        <v>1.311195798574516</v>
+        <v>0.1500430392127434</v>
       </c>
       <c r="N18">
-        <v>0.06439294903287873</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1883480267643272</v>
+        <v>1.352857680295244</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.07221630028226045</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1873947021200699</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.246078230969317</v>
+        <v>1.220440677400973</v>
       </c>
       <c r="C19">
-        <v>0.1859286462805869</v>
+        <v>0.2087437616225145</v>
       </c>
       <c r="D19">
-        <v>0.08640670989622379</v>
+        <v>0.09527731040573428</v>
       </c>
       <c r="E19">
-        <v>0.03541170160885088</v>
+        <v>0.03327309941536205</v>
       </c>
       <c r="F19">
-        <v>0.9522830953925734</v>
+        <v>0.7964603070236151</v>
       </c>
       <c r="G19">
-        <v>0.8544918291312911</v>
+        <v>0.6787269643196652</v>
       </c>
       <c r="H19">
-        <v>0.03121108651462379</v>
+        <v>0.03001703342857809</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5960058226249458</v>
+        <v>0.5222778227576157</v>
       </c>
       <c r="K19">
-        <v>0.6376287255169402</v>
+        <v>0.5033622075474256</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2053660113954976</v>
       </c>
       <c r="M19">
-        <v>1.263304059959268</v>
+        <v>0.1747671829445601</v>
       </c>
       <c r="N19">
-        <v>0.1129258566645319</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2208794257446485</v>
+        <v>1.309742128945885</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1230925255264523</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2196509204012536</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.305106271975632</v>
+        <v>1.270520986684147</v>
       </c>
       <c r="C20">
-        <v>0.1632159228686305</v>
+        <v>0.1886157295084558</v>
       </c>
       <c r="D20">
-        <v>0.07532374302159894</v>
+        <v>0.08463318863528002</v>
       </c>
       <c r="E20">
-        <v>0.05671818860251676</v>
+        <v>0.05085827975160129</v>
       </c>
       <c r="F20">
-        <v>1.174756312730196</v>
+        <v>0.9575377772120532</v>
       </c>
       <c r="G20">
-        <v>1.092453191549325</v>
+        <v>0.8597667934453455</v>
       </c>
       <c r="H20">
-        <v>0.002952163020863097</v>
+        <v>0.002215757487400882</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7141264329427059</v>
+        <v>0.5915620033063362</v>
       </c>
       <c r="K20">
-        <v>0.8011487283151766</v>
+        <v>0.6110048765556471</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2424452914036266</v>
       </c>
       <c r="M20">
-        <v>1.259664943133203</v>
+        <v>0.2190742478511787</v>
       </c>
       <c r="N20">
-        <v>0.2248802544394692</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2862502531443383</v>
+        <v>1.313822284657107</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2391049436537287</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.2844293312794832</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.472834468620789</v>
+        <v>1.434528028914144</v>
       </c>
       <c r="C21">
-        <v>0.1772276960587504</v>
+        <v>0.2036232633148103</v>
       </c>
       <c r="D21">
-        <v>0.0778725149190862</v>
+        <v>0.09327294751876281</v>
       </c>
       <c r="E21">
-        <v>0.0641852014266977</v>
+        <v>0.0572585771207752</v>
       </c>
       <c r="F21">
-        <v>1.275189475562613</v>
+        <v>0.9807285520566609</v>
       </c>
       <c r="G21">
-        <v>1.183054254960695</v>
+        <v>0.982906847288973</v>
       </c>
       <c r="H21">
-        <v>0.001077036886006466</v>
+        <v>0.0008040444616692621</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7505688223795062</v>
+        <v>0.4867290439614749</v>
       </c>
       <c r="K21">
-        <v>0.8458578372528081</v>
+        <v>0.6041203799524126</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2326051747781932</v>
       </c>
       <c r="M21">
-        <v>1.41621730161151</v>
+        <v>0.2262473830111844</v>
       </c>
       <c r="N21">
-        <v>0.2619286887274654</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3270059375815677</v>
+        <v>1.469658972546114</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2754584484079032</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3248938930697776</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.582521354373938</v>
+        <v>1.542278674983891</v>
       </c>
       <c r="C22">
-        <v>0.1876663501529379</v>
+        <v>0.2143369171857188</v>
       </c>
       <c r="D22">
-        <v>0.08000903004539595</v>
+        <v>0.09992680850864843</v>
       </c>
       <c r="E22">
-        <v>0.0677257691930695</v>
+        <v>0.06033753034382805</v>
       </c>
       <c r="F22">
-        <v>1.332352681402668</v>
+        <v>0.9864701499925843</v>
       </c>
       <c r="G22">
-        <v>1.232622977378057</v>
+        <v>1.06375316724754</v>
       </c>
       <c r="H22">
-        <v>0.000415538676745042</v>
+        <v>0.0003166542162811314</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7695521676288593</v>
+        <v>0.4187128272430982</v>
       </c>
       <c r="K22">
-        <v>0.8679185976226407</v>
+        <v>0.59306691832262</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2240829745655084</v>
       </c>
       <c r="M22">
-        <v>1.521491709217031</v>
+        <v>0.2285832533368222</v>
       </c>
       <c r="N22">
-        <v>0.2802411893017052</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.35096070026853</v>
+        <v>1.573415906078111</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2929630043123979</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3486710918608651</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.523923722145042</v>
+        <v>1.484180839487351</v>
       </c>
       <c r="C23">
-        <v>0.1820866804341961</v>
+        <v>0.2093023018091174</v>
       </c>
       <c r="D23">
-        <v>0.07887120979998485</v>
+        <v>0.0959277729705974</v>
       </c>
       <c r="E23">
-        <v>0.06583251706330984</v>
+        <v>0.05863980678927483</v>
       </c>
       <c r="F23">
-        <v>1.301688659657898</v>
+        <v>0.9885222413156498</v>
       </c>
       <c r="G23">
-        <v>1.206017604246341</v>
+        <v>1.012405945622305</v>
       </c>
       <c r="H23">
-        <v>0.0007290883601283049</v>
+        <v>0.0005448468093312009</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7593408935155281</v>
+        <v>0.4660998636303333</v>
       </c>
       <c r="K23">
-        <v>0.8560553184132118</v>
+        <v>0.6020254924689397</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2296450594871438</v>
       </c>
       <c r="M23">
-        <v>1.465248296185251</v>
+        <v>0.2285755989930109</v>
       </c>
       <c r="N23">
-        <v>0.2704568239730776</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3381648702678035</v>
+        <v>1.518889875162728</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2837898512847659</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3359455539723726</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.303128222584292</v>
+        <v>1.26808087518063</v>
       </c>
       <c r="C24">
-        <v>0.1611192952393168</v>
+        <v>0.1864753680699351</v>
       </c>
       <c r="D24">
-        <v>0.07450734182219065</v>
+        <v>0.08364148875978117</v>
       </c>
       <c r="E24">
-        <v>0.05873304896058329</v>
+        <v>0.05259608429807727</v>
       </c>
       <c r="F24">
-        <v>1.188823538870139</v>
+        <v>0.9686078633796882</v>
       </c>
       <c r="G24">
-        <v>1.108410182321833</v>
+        <v>0.8711817798835426</v>
       </c>
       <c r="H24">
-        <v>0.002755638084576462</v>
+        <v>0.002032187278244946</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7223549213485541</v>
+        <v>0.5987862360737068</v>
       </c>
       <c r="K24">
-        <v>0.8130127021215117</v>
+        <v>0.619615862551754</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2456798756752718</v>
       </c>
       <c r="M24">
-        <v>1.253378643931484</v>
+        <v>0.2222768334358989</v>
       </c>
       <c r="N24">
-        <v>0.2336145565540022</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2899204539673974</v>
+        <v>1.307961995831704</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2481730783158582</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2880635807940664</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.066849358701091</v>
+        <v>1.041773798362385</v>
       </c>
       <c r="C25">
-        <v>0.1387408993975328</v>
+        <v>0.1546264848125389</v>
       </c>
       <c r="D25">
-        <v>0.06968302048127839</v>
+        <v>0.07493329187188635</v>
       </c>
       <c r="E25">
-        <v>0.05117959687298601</v>
+        <v>0.04662597393548218</v>
       </c>
       <c r="F25">
-        <v>1.073258319428362</v>
+        <v>0.8935100004016903</v>
       </c>
       <c r="G25">
-        <v>1.009080039083159</v>
+        <v>0.8066552395744111</v>
       </c>
       <c r="H25">
-        <v>0.00655946456363532</v>
+        <v>0.004951917281631579</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6857090536627055</v>
+        <v>0.5882268705558147</v>
       </c>
       <c r="K25">
-        <v>0.7702044425711705</v>
+        <v>0.6059498811414343</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2513364307406967</v>
       </c>
       <c r="M25">
-        <v>1.026700643907446</v>
+        <v>0.2046750700624465</v>
       </c>
       <c r="N25">
-        <v>0.1942159875579179</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.238239054700685</v>
+        <v>1.072086140177845</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2080519132390535</v>
       </c>
       <c r="Q25">
+        <v>0.2369467813852069</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
